--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F4E1FE8-61E4-A842-9AF7-6408F32322E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D97A-DF81-944B-B13D-E776D2B2E2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{D67FBED2-D5C1-4146-B983-EE681586B6A6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>A morphologic qualifier by the American Joint Cancer Committee (AJCC) indicating that a cancerous lesion is undifferentiated. (American Joint Committee on Cancer. AJCC Cancer Staging Manual. 7th ed. New York, NY: Springer; 2010.)</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -555,15 +558,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C088BA-CEF4-E04E-8A9A-D706C336CFE8}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,8 +621,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -672,7 +678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -725,7 +731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -778,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -831,7 +837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3D97A-DF81-944B-B13D-E776D2B2E2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CE26B-FA58-2846-8A06-FAA7DB017334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{D67FBED2-D5C1-4146-B983-EE681586B6A6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -558,15 +561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C088BA-CEF4-E04E-8A9A-D706C336CFE8}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,8 +627,11 @@
       <c r="S1" t="s">
         <v>57</v>
       </c>
+      <c r="T1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -677,8 +683,11 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -730,8 +739,11 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -783,8 +795,11 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
+      <c r="T4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -836,8 +851,11 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
+      <c r="T5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -887,6 +905,9 @@
         <v>21</v>
       </c>
       <c r="Q6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CE26B-FA58-2846-8A06-FAA7DB017334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2027D4D9-A4D2-D744-9C0D-F3D52D44248E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{D67FBED2-D5C1-4146-B983-EE681586B6A6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -204,12 +204,6 @@
   </si>
   <si>
     <t>A morphologic qualifier by the American Joint Cancer Committee (AJCC) indicating that a cancerous lesion is undifferentiated. (American Joint Committee on Cancer. AJCC Cancer Staging Manual. 7th ed. New York, NY: Springer; 2010.)</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -561,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69C088BA-CEF4-E04E-8A9A-D706C336CFE8}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +618,8 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -683,11 +671,8 @@
       <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -739,11 +724,8 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -795,11 +777,8 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="T4" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -851,11 +830,8 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="T5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -905,9 +881,6 @@
         <v>21</v>
       </c>
       <c r="Q6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" t="s">
         <v>21</v>
       </c>
     </row>
